--- a/TODO/Conception/Utiles/données/Format d'Import et d'Export OUTILS MISSION.xlsx
+++ b/TODO/Conception/Utiles/données/Format d'Import et d'Export OUTILS MISSION.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Stage\GESTION-RH\TODO\Conception\Utiles\données\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{166E0A21-4FFD-40E7-971B-C37561E32DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Mission Payment Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
   <si>
     <t>Bénéficiaire</t>
   </si>
@@ -95,25 +94,28 @@
     <t>Lieu de départ</t>
   </si>
   <si>
-    <t>Lieu de Destination</t>
-  </si>
-  <si>
-    <t>Heure Heure</t>
-  </si>
-  <si>
-    <t>Heure Destination</t>
-  </si>
-  <si>
     <t>Poste</t>
   </si>
   <si>
     <t>Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heure de départ </t>
+  </si>
+  <si>
+    <t>Lieu de destination</t>
+  </si>
+  <si>
+    <t>Type de transport</t>
+  </si>
+  <si>
+    <t>Heure de retour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -461,34 +463,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.44140625" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -496,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>17</v>
@@ -508,37 +510,40 @@
         <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -551,26 +556,26 @@
       <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
       <c r="L2" s="2">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N2" s="2">
         <v>35000</v>
       </c>
       <c r="O2" s="2">
-        <v>120000</v>
+        <v>35000</v>
       </c>
       <c r="P2" s="2">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>120000</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -580,26 +585,26 @@
       <c r="J3" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
       <c r="L3" s="2">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N3" s="2">
         <v>35000</v>
       </c>
       <c r="O3" s="2">
-        <v>120000</v>
+        <v>35000</v>
       </c>
       <c r="P3" s="2">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>120000</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -609,26 +614,26 @@
       <c r="J4" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
       <c r="L4" s="2">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N4" s="2">
         <v>35000</v>
       </c>
       <c r="O4" s="2">
-        <v>120000</v>
+        <v>35000</v>
       </c>
       <c r="P4" s="2">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>120000</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -638,26 +643,26 @@
       <c r="J5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
       <c r="L5" s="2">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N5" s="2">
         <v>35000</v>
       </c>
       <c r="O5" s="2">
-        <v>120000</v>
+        <v>35000</v>
       </c>
       <c r="P5" s="2">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>120000</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -667,26 +672,26 @@
       <c r="J6" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
       <c r="L6" s="2">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N6" s="2">
         <v>35000</v>
       </c>
       <c r="O6" s="2">
-        <v>120000</v>
+        <v>35000</v>
       </c>
       <c r="P6" s="2">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>120000</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -696,26 +701,26 @@
       <c r="J7" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
       <c r="L7" s="2">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N7" s="2">
         <v>35000</v>
       </c>
       <c r="O7" s="2">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
         <v>110000</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -725,26 +730,26 @@
       <c r="J8" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
       <c r="L8" s="2">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N8" s="2">
         <v>35000</v>
       </c>
       <c r="O8" s="2">
-        <v>120000</v>
+        <v>35000</v>
       </c>
       <c r="P8" s="2">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>120000</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -754,26 +759,26 @@
       <c r="J9" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
       <c r="L9" s="2">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N9" s="2">
         <v>35000</v>
       </c>
       <c r="O9" s="2">
-        <v>120000</v>
+        <v>35000</v>
       </c>
       <c r="P9" s="2">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>120000</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -783,26 +788,26 @@
       <c r="J10" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
       <c r="L10" s="2">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N10" s="2">
         <v>35000</v>
       </c>
       <c r="O10" s="2">
-        <v>120000</v>
+        <v>35000</v>
       </c>
       <c r="P10" s="2">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>120000</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -812,26 +817,26 @@
       <c r="J11" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
       <c r="L11" s="2">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N11" s="2">
         <v>35000</v>
       </c>
       <c r="O11" s="2">
-        <v>120000</v>
+        <v>35000</v>
       </c>
       <c r="P11" s="2">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>120000</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -841,26 +846,26 @@
       <c r="J12" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
       <c r="L12" s="2">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N12" s="2">
         <v>35000</v>
       </c>
       <c r="O12" s="2">
-        <v>120000</v>
+        <v>35000</v>
       </c>
       <c r="P12" s="2">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>120000</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -870,26 +875,26 @@
       <c r="J13" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
       <c r="L13" s="2">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N13" s="2">
         <v>35000</v>
       </c>
       <c r="O13" s="2">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
         <v>110000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -899,26 +904,26 @@
       <c r="J15" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
       <c r="L15" s="2">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N15" s="2">
         <v>35000</v>
       </c>
       <c r="O15" s="2">
-        <v>120000</v>
+        <v>35000</v>
       </c>
       <c r="P15" s="2">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>120000</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -928,26 +933,26 @@
       <c r="J16" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
       <c r="L16" s="2">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N16" s="2">
         <v>35000</v>
       </c>
       <c r="O16" s="2">
-        <v>120000</v>
+        <v>35000</v>
       </c>
       <c r="P16" s="2">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>120000</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -957,26 +962,26 @@
       <c r="J17" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
       <c r="L17" s="2">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N17" s="2">
         <v>35000</v>
       </c>
       <c r="O17" s="2">
-        <v>120000</v>
+        <v>35000</v>
       </c>
       <c r="P17" s="2">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>120000</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -986,26 +991,26 @@
       <c r="J18" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
       <c r="L18" s="2">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N18" s="2">
         <v>35000</v>
       </c>
       <c r="O18" s="2">
-        <v>120000</v>
+        <v>35000</v>
       </c>
       <c r="P18" s="2">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>120000</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1015,26 +1020,26 @@
       <c r="J19" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
       <c r="L19" s="2">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N19" s="2">
         <v>35000</v>
       </c>
       <c r="O19" s="2">
-        <v>120000</v>
+        <v>35000</v>
       </c>
       <c r="P19" s="2">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <v>120000</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1044,22 +1049,22 @@
       <c r="J20" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
       <c r="L20" s="2">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="M20" s="2">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N20" s="2">
         <v>35000</v>
       </c>
       <c r="O20" s="2">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
         <v>110000</v>
       </c>
     </row>

--- a/TODO/Conception/Utiles/données/Format d'Import et d'Export OUTILS MISSION.xlsx
+++ b/TODO/Conception/Utiles/données/Format d'Import et d'Export OUTILS MISSION.xlsx
@@ -103,13 +103,13 @@
     <t xml:space="preserve">Heure de départ </t>
   </si>
   <si>
-    <t>Lieu de destination</t>
-  </si>
-  <si>
     <t>Type de transport</t>
   </si>
   <si>
     <t>Heure de retour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lieu de mission </t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,16 +513,16 @@
         <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>

--- a/TODO/Conception/Utiles/données/Format d'Import et d'Export OUTILS MISSION.xlsx
+++ b/TODO/Conception/Utiles/données/Format d'Import et d'Export OUTILS MISSION.xlsx
@@ -1,33 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Stage\GESTION-RH\TODO\Conception\Utiles\données\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Stage-RH\Projet\GESTION-RH\TODO\Conception\Utiles\données\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09796C0-34D4-4020-A99B-1703A109C8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mission Payment Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -115,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,11 +451,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TODO/Conception/Utiles/données/Format d'Import et d'Export OUTILS MISSION.xlsx
+++ b/TODO/Conception/Utiles/données/Format d'Import et d'Export OUTILS MISSION.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Stage-RH\Projet\GESTION-RH\TODO\Conception\Utiles\données\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09796C0-34D4-4020-A99B-1703A109C8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF65027-58C7-4C4A-86FC-31B08E3A0B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>Bénéficiaire</t>
   </si>
@@ -455,7 +455,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,178 +883,52 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>25000</v>
-      </c>
-      <c r="N15" s="2">
-        <v>35000</v>
-      </c>
-      <c r="O15" s="2">
-        <v>35000</v>
-      </c>
-      <c r="P15" s="2">
-        <v>120000</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>230000</v>
-      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <v>25000</v>
-      </c>
-      <c r="N16" s="2">
-        <v>35000</v>
-      </c>
-      <c r="O16" s="2">
-        <v>35000</v>
-      </c>
-      <c r="P16" s="2">
-        <v>120000</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>25000</v>
-      </c>
-      <c r="N17" s="2">
-        <v>35000</v>
-      </c>
-      <c r="O17" s="2">
-        <v>35000</v>
-      </c>
-      <c r="P17" s="2">
-        <v>120000</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
-        <v>25000</v>
-      </c>
-      <c r="N18" s="2">
-        <v>35000</v>
-      </c>
-      <c r="O18" s="2">
-        <v>35000</v>
-      </c>
-      <c r="P18" s="2">
-        <v>120000</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <v>25000</v>
-      </c>
-      <c r="N19" s="2">
-        <v>35000</v>
-      </c>
-      <c r="O19" s="2">
-        <v>35000</v>
-      </c>
-      <c r="P19" s="2">
-        <v>120000</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>25000</v>
-      </c>
-      <c r="N20" s="2">
-        <v>35000</v>
-      </c>
-      <c r="O20" s="2">
-        <v>35000</v>
-      </c>
-      <c r="P20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>110000</v>
-      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
